--- a/medicine/Enfance/Sébastien_Gendron/Sébastien_Gendron.xlsx
+++ b/medicine/Enfance/Sébastien_Gendron/Sébastien_Gendron.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>S%C3%A9bastien_Gendron</t>
+          <t>Sébastien_Gendron</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Sébastien Gendron, né le 29 novembre 1970 à Talence, est un écrivain français de  romans noirs et de romans jeunesse.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>S%C3%A9bastien_Gendron</t>
+          <t>Sébastien_Gendron</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,12 +523,14 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Après un baccalauréat d'arts plastiques, des études de cinéma et beaucoup de « petits boulots », Sébastien Gendron devient réalisateur de séries télé à 32 ans[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Après un baccalauréat d'arts plastiques, des études de cinéma et beaucoup de « petits boulots », Sébastien Gendron devient réalisateur de séries télé à 32 ans.
 Il publie La Jeune Fille et le Cachalot, son premier roman, en 2003. Suivront un recueil de nouvelles et une vingtaine d'autres titres dont Mort à Denise le numéro 266 de la collection du Poulpe.
 En parallèle, il collabore à des revues[Lesquelles ?] comme chroniqueur, publie des romans pour la jeunesse et écrit des feuilletons littéraires[Lesquels ?].
-France Inter le considère comme un « maître de l'humour noir »[2], RTL comme un "génial perfectionniste du polar".
+France Inter le considère comme un « maître de l'humour noir », RTL comme un "génial perfectionniste du polar".
 </t>
         </is>
       </c>
@@ -527,7 +541,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>S%C3%A9bastien_Gendron</t>
+          <t>Sébastien_Gendron</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -545,9 +559,11 @@
           <t>Engagement politique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En 2012, il soutient Jean-Luc Mélenchon, candidat du Front de gauche à l'élection présidentielle[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 2012, il soutient Jean-Luc Mélenchon, candidat du Front de gauche à l'élection présidentielle.
 </t>
         </is>
       </c>
@@ -558,7 +574,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>S%C3%A9bastien_Gendron</t>
+          <t>Sébastien_Gendron</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -578,8 +594,13 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Romans
-La Jeune Fille et le Cachalot, Cylibris, 2003
+          <t>Romans</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>La Jeune Fille et le Cachalot, Cylibris, 2003
 Mes amis mortels, Toucan Noir, 2008
 Le Tri sélectif des ordures, Bernard Pascuito, 2008Réédition, Pocket, 2014
 Mort à Denise, Baleine, coll. « Le Poulpe », 2010
@@ -593,30 +614,166 @@
 Fin de siècle, Gallimard, coll. « Série noire », 2020, 230 p.  (ISBN 978-2-07-286768-2)Réédition, Gallimard, coll. « Folio policier » no 933, 2021, 256 p.  (ISBN 978-2-07-292237-4)
 Chez Paradis, Gallimard, coll. « Série noire », 2022  (ISBN 978-2-072-92547-4)
 Porn Food Scandal, Editions du Petit Écart; 2023  (ISBN 978-2-9561192-8-9)
-Chevreuil, Gallimard, coll. « Série noire », 2024
-Romans jeunesse
-L’Homme à la voiture bleue, Syros, 2014
+Chevreuil, Gallimard, coll. « Série noire », 2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Sébastien_Gendron</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/S%C3%A9bastien_Gendron</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Publications</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Romans jeunesse</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>L’Homme à la voiture bleue, Syros, 2014
 Sur la route d'Indianapolis, Magnard Jeunesse, 2016
 Cours, Charles !, Magnard Jeunesse, 2017
-Kaplan, Syros, 2018[4]
+Kaplan, Syros, 2018
 Les Romanichels, In8, coll. Faction, 2022
 Le Chat, le Môme et le Bison, Poulpe Fiction, 2023
-Dans le collimateur, PKJ, 2024
-Nouvelles
-Le Jour où on a tué Margot (recueil) Hache, 2002.
+Dans le collimateur, PKJ, 2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Sébastien_Gendron</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/S%C3%A9bastien_Gendron</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Publications</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Nouvelles</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Le Jour où on a tué Margot (recueil) Hache, 2002.
 Fitzpatrick (nouvelle unitaire), Zinc Éditions, 2004.
 Miss Acapulco (nouvelle unitaire), Zinc Éditions, 2005.
 Perte momentanée de contrôle sur l'individu B31 (nouvelle unitaire) Zinc Éditions, 2008.
-Échantillons gratuits ne pouvant être vendus séparément (recueil), Les Petits Matins, 2008.
-Ouvrages collectifs
-Si elles savaient (nouvelles), Les Petits matins, 2009
+Échantillons gratuits ne pouvant être vendus séparément (recueil), Les Petits Matins, 2008.</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Sébastien_Gendron</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/S%C3%A9bastien_Gendron</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Publications</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Ouvrages collectifs</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Si elles savaient (nouvelles), Les Petits matins, 2009
 Paris, le jour (nouvelles), Parigramme, collection 7.5, 2011
 Tapage nocturne (nouvelles), Antidata, 2011
 Les Auteurs du noir contre la différence (nouvelles), Jigal, 2012
 Jusqu'ici tout va bien (nouvelles), Antidata, 2013
-Les Sept Petits Nègres (nouvelles), In Octavo éditions, 2013
-Revues
-L'Ours polar (chroniques), 2004
+Les Sept Petits Nègres (nouvelles), In Octavo éditions, 2013</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Sébastien_Gendron</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/S%C3%A9bastien_Gendron</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Publications</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Revues</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>L'Ours polar (chroniques), 2004
 Shanghai Express (feuilleton), 2006
 Schnock (chroniques), 2012</t>
         </is>
